--- a/Arrayer/electric/电气控制测试.xlsx
+++ b/Arrayer/electric/电气控制测试.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE82F30-0D8A-4C0A-9C66-8A83857916D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,293 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+  <si>
+    <t>单独运行样品盘</t>
+  </si>
+  <si>
+    <t>输入固定位置运行</t>
+  </si>
+  <si>
+    <t>不漂移</t>
+  </si>
+  <si>
+    <t>10000次</t>
+  </si>
+  <si>
+    <t>测试名称</t>
+  </si>
+  <si>
+    <t>测试方法</t>
+  </si>
+  <si>
+    <t>测试目的</t>
+  </si>
+  <si>
+    <t>测试数量</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>问题描述</t>
+  </si>
+  <si>
+    <t>问题截图</t>
+  </si>
+  <si>
+    <t>解决方案</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>是否解决</t>
+  </si>
+  <si>
+    <t>问题重现1</t>
+  </si>
+  <si>
+    <t>单独运行PCR板托盘移动</t>
+  </si>
+  <si>
+    <t>单独运行Head移动</t>
+  </si>
+  <si>
+    <t>运行DJ1吸液</t>
+  </si>
+  <si>
+    <t>只进行DJ1吸空气柱、吸液、长喷</t>
+  </si>
+  <si>
+    <t>能够连贯执行且位置不偏移</t>
+  </si>
+  <si>
+    <t>运行DJ4吸液</t>
+  </si>
+  <si>
+    <t>只进行DJ4吸空气柱、吸液、长喷</t>
+  </si>
+  <si>
+    <t>运行DP吸液</t>
+  </si>
+  <si>
+    <t>只进行DP吸液、喷出</t>
+  </si>
+  <si>
+    <t>预喷DJ1</t>
+  </si>
+  <si>
+    <t>从DJ1吸液抬起的位置运行到预喷位置进行预喷动作并完成</t>
+  </si>
+  <si>
+    <t>预喷DJ4</t>
+  </si>
+  <si>
+    <t>从DJ4吸液抬起的位置运行到预喷位置进行预喷动作并完成</t>
+  </si>
+  <si>
+    <t>单独进行DJ1喷液动作</t>
+  </si>
+  <si>
+    <t>从预喷动作开始进行DJ1喷液完</t>
+  </si>
+  <si>
+    <t>单独进行DJ4喷液动作</t>
+  </si>
+  <si>
+    <t>从预喷动作开始进行DJ4喷液完</t>
+  </si>
+  <si>
+    <t>单独进行DP加样动作</t>
+  </si>
+  <si>
+    <t>从DP吸液完位置开始进行加样并完成后抬起</t>
+  </si>
+  <si>
+    <t>单独进行DJ1清洗动作</t>
+  </si>
+  <si>
+    <t>从DJ1喷液完的位置运行到清洗位置并完成清洗并抬起</t>
+  </si>
+  <si>
+    <t>单独进行DJ4清洗动作</t>
+  </si>
+  <si>
+    <t>从DJ4喷液完的位置运行到清洗位置并完成清洗并抬起</t>
+  </si>
+  <si>
+    <t>单独进行DP清洗动作</t>
+  </si>
+  <si>
+    <t>从DP加样后位置运行到清洗位置并完成清洗并抬起</t>
+  </si>
+  <si>
+    <t>单独进行松开锁紧</t>
+  </si>
+  <si>
+    <t>在正常能够吸液喷液验证后运行n次松开锁紧</t>
+  </si>
+  <si>
+    <t>能够连贯执行且不漏液</t>
+  </si>
+  <si>
+    <t>热封块下压测试</t>
+  </si>
+  <si>
+    <t>先正常封膜然后反应板托盘移动到热封位，温度设置为10℃，取掉膜，进行不断下压测试，n次后进行热封测试</t>
+  </si>
+  <si>
+    <t>能够连贯执行且n次后封膜正常不煮漏</t>
+  </si>
+  <si>
+    <t>横切刀出刀测试</t>
+  </si>
+  <si>
+    <t>正常热封后反应板托盘放置板子位于热封位进行不断出刀动作</t>
+  </si>
+  <si>
+    <t>能够连贯执行且位置不偏移不撞刀螺丝不松</t>
+  </si>
+  <si>
+    <t>竖切刀出刀测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常热封后进行不断竖切刀动作，n次后进行热封预切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n次后能够正常预切不卡刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热封电机测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常热封后进行添加负载空转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n次后能够正常热封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热封模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气接线进行一次排查检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照图纸进行检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有接错线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP密封圈稳定性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP伺服电机往返运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察96吸头吸液高度基本一致，喷液后位置基本一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机清洗槽DJ充排水检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察充排水状态是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无溅出充排水正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机后进行手动充排水测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机测试100次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动开机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常初始化无报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回原点测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X轴回原点测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y轴回原点测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z轴回原点测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机后手动设置从某位置移动到原点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回原点正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +329,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +622,465 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="62.21875" customWidth="1"/>
+    <col min="3" max="3" width="52.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Arrayer/electric/电气控制测试.xlsx
+++ b/Arrayer/electric/电气控制测试.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE82F30-0D8A-4C0A-9C66-8A83857916D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278E713A-3944-4B74-9083-5402CB893DED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="已测试" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
   <si>
     <t>单独运行样品盘</t>
   </si>
@@ -286,6 +287,46 @@
   </si>
   <si>
     <t>回原点正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP吸液准备位运行到DP加样准备位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动在两个位置之间运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行正常且位置无漂移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/1/7晚9点-2019/1-8下午两点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张睿、张新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因smc电缸测试暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/1/819:23-2019/1/9/10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地布局拔掉网线暂停</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,18 +666,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1"/>
-    <col min="2" max="2" width="62.21875" customWidth="1"/>
-    <col min="3" max="3" width="52.44140625" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="62.25" customWidth="1"/>
+    <col min="3" max="3" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -677,7 +718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -691,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -705,12 +746,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -724,7 +765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -738,7 +779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -752,7 +793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -766,7 +807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -780,7 +821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -794,7 +835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -808,7 +849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -822,7 +863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -836,7 +877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -850,7 +891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -864,7 +905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -878,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -892,12 +933,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -911,13 +952,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -931,13 +972,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -951,7 +992,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -965,7 +1006,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -979,7 +1020,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -993,7 +1034,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -1007,7 +1048,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -1021,12 +1062,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -1040,7 +1081,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -1054,7 +1095,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1083,4 +1124,122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC3A348-16A6-41E9-B4F4-907FFAA66779}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2">
+        <v>4000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3">
+        <v>3200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Arrayer/electric/电气控制测试.xlsx
+++ b/Arrayer/electric/电气控制测试.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278E713A-3944-4B74-9083-5402CB893DED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7320DD3F-9810-49DA-83B1-B369FADC3C60}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>单独运行样品盘</t>
   </si>
@@ -327,6 +327,18 @@
   </si>
   <si>
     <t>场地布局拔掉网线暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行到2019/1/11 17:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP加样准备位运行到DP清洗准备位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -383,6 +395,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC3A348-16A6-41E9-B4F4-907FFAA66779}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1237,6 +1252,43 @@
         <v>88</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4">
+        <v>6642</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>43476.724999999999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
